--- a/KatalonData/IWPTestData/EmulatorData.xlsx
+++ b/KatalonData/IWPTestData/EmulatorData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17239DFE-0960-4324-8F58-34AA25A119F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CC57F7-5E7C-47CB-969A-B2915B84D6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
   </bookViews>
   <sheets>
     <sheet name="PayNowData" sheetId="1" r:id="rId1"/>

--- a/KatalonData/IWPTestData/EmulatorData.xlsx
+++ b/KatalonData/IWPTestData/EmulatorData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CC57F7-5E7C-47CB-969A-B2915B84D6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE5DC09-6B12-4FE8-BBB1-AEEF3287484B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
   <si>
     <t>Notes</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>14.50</t>
+  </si>
+  <si>
+    <t>No Modify Amount</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -619,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D3E213-FD08-482B-9ECE-5B5E0D45C129}">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,6 +945,86 @@
         <v>31</v>
       </c>
     </row>
+    <row r="6" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/KatalonData/IWPTestData/EmulatorData.xlsx
+++ b/KatalonData/IWPTestData/EmulatorData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE5DC09-6B12-4FE8-BBB1-AEEF3287484B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058DA352-74C5-4DF0-A359-1606CE1E4951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
   <si>
     <t>Notes</t>
   </si>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>26412171</t>
   </si>
 </sst>
 </file>
@@ -625,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D3E213-FD08-482B-9ECE-5B5E0D45C129}">
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,6 +1031,68 @@
         <v>50</v>
       </c>
     </row>
+    <row r="7" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/KatalonData/IWPTestData/EmulatorData.xlsx
+++ b/KatalonData/IWPTestData/EmulatorData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058DA352-74C5-4DF0-A359-1606CE1E4951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CC1D62-5E55-4987-9CC6-0AD0C76FDDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
+    <workbookView xWindow="-38510" yWindow="-2030" windowWidth="38620" windowHeight="21220" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
   </bookViews>
   <sheets>
     <sheet name="PayNowData" sheetId="1" r:id="rId1"/>
@@ -637,34 +637,34 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.15234375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.4609375" style="1" customWidth="1"/>
     <col min="3" max="3" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.15234375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.53515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.69140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.53515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.53515625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="6.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="8.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="8.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,7 +750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -830,7 +830,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -854,7 +854,7 @@
       </c>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -931,7 +931,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -951,7 +951,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>73</v>
       </c>

--- a/KatalonData/IWPTestData/EmulatorData.xlsx
+++ b/KatalonData/IWPTestData/EmulatorData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CC1D62-5E55-4987-9CC6-0AD0C76FDDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F692C727-674A-40A4-9023-C65362FE9783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-2030" windowWidth="38620" windowHeight="21220" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
   </bookViews>
   <sheets>
-    <sheet name="PayNowData" sheetId="1" r:id="rId1"/>
+    <sheet name="EmulatorData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="95">
   <si>
     <t>Notes</t>
   </si>
@@ -261,6 +261,66 @@
   </si>
   <si>
     <t>26412171</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Parcels</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>Honudi</t>
+  </si>
+  <si>
+    <t>Jasmine</t>
+  </si>
+  <si>
+    <t>Curlonty</t>
+  </si>
+  <si>
+    <t>Kotalio</t>
+  </si>
+  <si>
+    <t>Patrinol</t>
+  </si>
+  <si>
+    <t>Lachuga</t>
+  </si>
+  <si>
+    <t>Hello World</t>
+  </si>
+  <si>
+    <t>26413100</t>
+  </si>
+  <si>
+    <t>26413255</t>
+  </si>
+  <si>
+    <t>26413329</t>
   </si>
 </sst>
 </file>
@@ -335,9 +395,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -375,7 +435,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -481,7 +541,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -623,7 +683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -631,466 +691,711 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D3E213-FD08-482B-9ECE-5B5E0D45C129}">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.15234375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.4609375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.69140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.53515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="8.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="8.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.15234375" style="1"/>
+    <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.42578125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:28" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/IWPTestData/EmulatorData.xlsx
+++ b/KatalonData/IWPTestData/EmulatorData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F692C727-674A-40A4-9023-C65362FE9783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4E7650-A07E-44BE-82C6-485694D29B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="96">
   <si>
     <t>Notes</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>26413329</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -831,6 +834,9 @@
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1318,6 +1324,9 @@
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>81</v>

--- a/KatalonData/IWPTestData/EmulatorData.xlsx
+++ b/KatalonData/IWPTestData/EmulatorData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4E7650-A07E-44BE-82C6-485694D29B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE54F27-8A57-47EC-B65E-9973E35D1A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
+    <workbookView xWindow="1905" yWindow="1545" windowWidth="24840" windowHeight="12570" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
   </bookViews>
   <sheets>
     <sheet name="EmulatorData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="100">
   <si>
     <t>Notes</t>
   </si>
@@ -324,6 +324,18 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>No Emulator Data</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>26413414</t>
+  </si>
+  <si>
+    <t>Some Company</t>
   </si>
 </sst>
 </file>
@@ -694,17 +706,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D3E213-FD08-482B-9ECE-5B5E0D45C129}">
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="AB11" sqref="AB11:AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
@@ -719,7 +731,7 @@
     <col min="15" max="15" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="25" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1287,6 +1299,9 @@
       <c r="P9" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="R9" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="S9" s="2" t="s">
         <v>40</v>
       </c>
@@ -1325,9 +1340,6 @@
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C10" s="1" t="s">
         <v>81</v>
       </c>
@@ -1405,6 +1417,42 @@
       </c>
       <c r="AF10" s="1" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="W11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/IWPTestData/EmulatorData.xlsx
+++ b/KatalonData/IWPTestData/EmulatorData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4E7650-A07E-44BE-82C6-485694D29B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{EFE54F27-8A57-47EC-B65E-9973E35D1A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A4CFB89-A2B6-4673-983D-521EFE653E3E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
+    <workbookView xWindow="1905" yWindow="1545" windowWidth="24840" windowHeight="12570" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
   </bookViews>
   <sheets>
     <sheet name="EmulatorData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,11 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="100">
   <si>
     <t>Notes</t>
   </si>
   <si>
+    <t>Execute</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -122,18 +125,120 @@
     <t>UDF10</t>
   </si>
   <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Parcels</t>
+  </si>
+  <si>
+    <t>PayNow All Fields</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
     <t>3.0</t>
   </si>
   <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>26412167</t>
+  </si>
+  <si>
     <t>PayNow</t>
   </si>
   <si>
     <t>en_US</t>
   </si>
   <si>
+    <t>Elizath</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>258 Underwood rd</t>
+  </si>
+  <si>
+    <t>Suite 600</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>Arlington</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>22201</t>
+  </si>
+  <si>
+    <t>iahmed@govolution.com</t>
+  </si>
+  <si>
+    <t>udf data 1</t>
+  </si>
+  <si>
+    <t>udf data 2</t>
+  </si>
+  <si>
+    <t>udf data 3</t>
+  </si>
+  <si>
+    <t>udf data 4</t>
+  </si>
+  <si>
+    <t>udf data 5</t>
+  </si>
+  <si>
+    <t>udf data 6</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Soccer</t>
+  </si>
+  <si>
+    <t>udf data 9</t>
+  </si>
+  <si>
+    <t>udf data 10</t>
+  </si>
+  <si>
+    <t>Paynow Some Fields</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>26412168</t>
+  </si>
+  <si>
+    <t>AutoPay All Fields</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>13.50</t>
+  </si>
+  <si>
+    <t>AutoPay</t>
+  </si>
+  <si>
     <t>Jonty</t>
   </si>
   <si>
@@ -143,12 +248,6 @@
     <t>15 Elm St</t>
   </si>
   <si>
-    <t>Suite 600</t>
-  </si>
-  <si>
-    <t>840</t>
-  </si>
-  <si>
     <t>Gambrills</t>
   </si>
   <si>
@@ -158,96 +257,12 @@
     <t>21054</t>
   </si>
   <si>
-    <t>iahmed@govolution.com</t>
-  </si>
-  <si>
-    <t>udf data 1</t>
-  </si>
-  <si>
-    <t>udf data 2</t>
-  </si>
-  <si>
-    <t>udf data 3</t>
-  </si>
-  <si>
-    <t>udf data 4</t>
-  </si>
-  <si>
-    <t>udf data 5</t>
-  </si>
-  <si>
-    <t>udf data 6</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Soccer</t>
-  </si>
-  <si>
-    <t>udf data 9</t>
-  </si>
-  <si>
-    <t>udf data 10</t>
-  </si>
-  <si>
-    <t>PayNow All Fields</t>
-  </si>
-  <si>
-    <t>Paynow Some Fields</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>26412167</t>
-  </si>
-  <si>
-    <t>26412168</t>
-  </si>
-  <si>
-    <t>AutoPay All Fields</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>AutoPay</t>
-  </si>
-  <si>
     <t>AutoPay Some Fields</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>10.50</t>
-  </si>
-  <si>
-    <t>Elizath</t>
-  </si>
-  <si>
-    <t>Christine</t>
-  </si>
-  <si>
-    <t>258 Underwood rd</t>
-  </si>
-  <si>
-    <t>Arlington</t>
-  </si>
-  <si>
-    <t>VA</t>
-  </si>
-  <si>
-    <t>22201</t>
-  </si>
-  <si>
-    <t>12.50</t>
-  </si>
-  <si>
-    <t>13.50</t>
-  </si>
-  <si>
     <t>14.50</t>
   </si>
   <si>
@@ -263,74 +278,71 @@
     <t>26412171</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Parcels</t>
-  </si>
-  <si>
-    <t>Execute</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>26413100</t>
+  </si>
+  <si>
+    <t>Honudi</t>
+  </si>
+  <si>
+    <t>Kotalio</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>26413255</t>
+  </si>
+  <si>
+    <t>Jasmine</t>
+  </si>
+  <si>
+    <t>Patrinol</t>
+  </si>
+  <si>
+    <t>Some Company</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
     <t>2.7</t>
   </si>
   <si>
-    <t>Honudi</t>
-  </si>
-  <si>
-    <t>Jasmine</t>
+    <t>26413329</t>
   </si>
   <si>
     <t>Curlonty</t>
   </si>
   <si>
-    <t>Kotalio</t>
-  </si>
-  <si>
-    <t>Patrinol</t>
-  </si>
-  <si>
     <t>Lachuga</t>
   </si>
   <si>
     <t>Hello World</t>
   </si>
   <si>
-    <t>26413100</t>
-  </si>
-  <si>
-    <t>26413255</t>
-  </si>
-  <si>
-    <t>26413329</t>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>No Emulator Data</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>26413414</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,9 +410,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -438,7 +450,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -544,7 +556,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -686,7 +698,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -694,17 +706,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D3E213-FD08-482B-9ECE-5B5E0D45C129}">
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
@@ -719,7 +731,7 @@
     <col min="15" max="15" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="25" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -732,679 +744,718 @@
     <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="W2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="30">
       <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:32" ht="30">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="C7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="S8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="V8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="1" t="s">
+    <row r="9" spans="1:32">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>89</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U9" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="S10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="V10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="1" t="s">
+    <row r="11" spans="1:32" ht="30.75">
+      <c r="A11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W10" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>91</v>
+      <c r="S11" s="2"/>
+      <c r="W11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/IWPTestData/EmulatorData.xlsx
+++ b/KatalonData/IWPTestData/EmulatorData.xlsx
@@ -5,38 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE54F27-8A57-47EC-B65E-9973E35D1A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D74D71-167D-4714-80AC-4870189BFB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1545" windowWidth="24840" windowHeight="12570" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
   </bookViews>
   <sheets>
     <sheet name="EmulatorData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="102">
   <si>
     <t>Notes</t>
   </si>
@@ -336,6 +325,12 @@
   </si>
   <si>
     <t>Some Company</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>No UnderPay</t>
   </si>
 </sst>
 </file>
@@ -706,45 +701,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D3E213-FD08-482B-9ECE-5B5E0D45C129}">
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11:AC11"/>
+      <selection activeCell="A13" sqref="A13:AC13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7265625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="23.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.42578125" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="31" max="31" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.453125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,7 +837,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -925,7 +920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -949,7 +944,7 @@
       </c>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -1026,7 +1021,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -1046,7 +1041,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -1126,7 +1121,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
         <v>73</v>
       </c>
@@ -1188,7 +1183,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -1253,7 +1248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -1336,7 +1331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -1419,7 +1414,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>96</v>
       </c>
@@ -1453,6 +1448,60 @@
       </c>
       <c r="AC11" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/IWPTestData/EmulatorData.xlsx
+++ b/KatalonData/IWPTestData/EmulatorData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D74D71-167D-4714-80AC-4870189BFB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83046C1-A7CB-49EC-B760-31C719B12FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="103">
   <si>
     <t>Notes</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>No UnderPay</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -701,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D3E213-FD08-482B-9ECE-5B5E0D45C129}">
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:AC13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1504,6 +1507,39 @@
         <v>42</v>
       </c>
     </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="W13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/KatalonData/IWPTestData/EmulatorData.xlsx
+++ b/KatalonData/IWPTestData/EmulatorData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83046C1-A7CB-49EC-B760-31C719B12FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AFDB9A-9927-4EF8-A150-57DC24F6DAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
   </bookViews>
   <sheets>
     <sheet name="EmulatorData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="104">
   <si>
     <t>Notes</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
 </sst>
 </file>
@@ -704,45 +707,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D3E213-FD08-482B-9ECE-5B5E0D45C129}">
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7265625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="23.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.77734375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.453125" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.1796875" style="1"/>
+    <col min="31" max="31" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.44140625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -840,7 +843,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -923,7 +926,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -947,7 +950,7 @@
       </c>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -1044,7 +1047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -1124,7 +1127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>73</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>96</v>
       </c>
@@ -1453,7 +1456,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>101</v>
       </c>
@@ -1507,7 +1510,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>96</v>
       </c>
@@ -1537,6 +1540,38 @@
         <v>49</v>
       </c>
       <c r="AC13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC14" s="1" t="s">
         <v>50</v>
       </c>
     </row>

--- a/KatalonData/IWPTestData/EmulatorData.xlsx
+++ b/KatalonData/IWPTestData/EmulatorData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AFDB9A-9927-4EF8-A150-57DC24F6DAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4748DD3C-4CE2-408F-989A-0E5D191D10D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
   </bookViews>
   <sheets>
     <sheet name="EmulatorData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="107">
   <si>
     <t>Notes</t>
   </si>
@@ -337,6 +337,15 @@
   </si>
   <si>
     <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
 </sst>
 </file>
@@ -707,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D3E213-FD08-482B-9ECE-5B5E0D45C129}">
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AH14" sqref="AH14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1575,6 +1584,179 @@
         <v>50</v>
       </c>
     </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="W15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/KatalonData/IWPTestData/EmulatorData.xlsx
+++ b/KatalonData/IWPTestData/EmulatorData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4748DD3C-4CE2-408F-989A-0E5D191D10D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B1F6A3-F81B-4C14-B271-EFBD5E180FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="109">
   <si>
     <t>Notes</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
 </sst>
 </file>
@@ -716,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D3E213-FD08-482B-9ECE-5B5E0D45C129}">
-  <dimension ref="A1:AF17"/>
+  <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1703,7 +1709,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>101</v>
       </c>
@@ -1755,6 +1761,70 @@
       </c>
       <c r="U17" s="1" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/IWPTestData/EmulatorData.xlsx
+++ b/KatalonData/IWPTestData/EmulatorData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T476640\Documents\VPS_Katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B1F6A3-F81B-4C14-B271-EFBD5E180FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3F5904-A23D-4A39-924B-2EDFBE78DC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
   </bookViews>
   <sheets>
     <sheet name="EmulatorData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -312,46 +312,46 @@
     <t>26413329</t>
   </si>
   <si>
+    <t>No Emulator Data</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>26413414</t>
+  </si>
+  <si>
+    <t>Some Company</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>No UnderPay</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>No Emulator Data</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>26413414</t>
-  </si>
-  <si>
-    <t>Some Company</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>No UnderPay</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
   </si>
 </sst>
 </file>
@@ -725,42 +725,42 @@
   <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.77734375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="23.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.44140625" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.21875" style="1"/>
+    <col min="31" max="31" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.453125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -858,13 +858,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
@@ -941,7 +938,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -965,7 +962,7 @@
       </c>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -1042,7 +1039,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -1062,7 +1059,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -1142,7 +1139,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
         <v>73</v>
       </c>
@@ -1204,7 +1201,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -1269,7 +1266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -1316,7 +1313,7 @@
         <v>67</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>40</v>
@@ -1352,7 +1349,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -1435,12 +1432,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>83</v>
@@ -1449,7 +1446,7 @@
         <v>61</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>30</v>
@@ -1471,12 +1468,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>83</v>
@@ -1485,7 +1482,7 @@
         <v>61</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>30</v>
@@ -1525,12 +1522,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>83</v>
@@ -1558,12 +1555,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>83</v>
@@ -1590,12 +1590,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>29</v>
@@ -1604,7 +1604,7 @@
         <v>61</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>30</v>
@@ -1626,12 +1626,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>29</v>
@@ -1673,7 +1673,7 @@
         <v>67</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>40</v>
@@ -1709,12 +1709,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>29</v>
@@ -1723,7 +1723,7 @@
         <v>61</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>30</v>
@@ -1763,12 +1763,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>29</v>
@@ -1795,12 +1795,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>29</v>

--- a/KatalonData/IWPTestData/EmulatorData.xlsx
+++ b/KatalonData/IWPTestData/EmulatorData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T476640\Documents\VPS_Katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3F5904-A23D-4A39-924B-2EDFBE78DC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45875C4-3E7D-4841-873D-5002002D12A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
   </bookViews>
@@ -300,9 +300,6 @@
     <t>Lachuga</t>
   </si>
   <si>
-    <t>Hello World</t>
-  </si>
-  <si>
     <t>26413100</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|1234~Whole Wheat~$5| </t>
   </si>
 </sst>
 </file>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D3E213-FD08-482B-9ECE-5B5E0D45C129}">
   <dimension ref="A1:AF19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1215,7 +1215,7 @@
         <v>61</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>30</v>
@@ -1280,7 +1280,7 @@
         <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>30</v>
@@ -1313,7 +1313,7 @@
         <v>67</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>40</v>
@@ -1349,7 +1349,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>30</v>
@@ -1429,15 +1429,15 @@
         <v>50</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>83</v>
@@ -1446,7 +1446,7 @@
         <v>61</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>30</v>
@@ -1470,10 +1470,10 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>83</v>
@@ -1482,7 +1482,7 @@
         <v>61</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>30</v>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>83</v>
@@ -1557,13 +1557,13 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>83</v>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>29</v>
@@ -1604,7 +1604,7 @@
         <v>61</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>30</v>
@@ -1631,7 +1631,7 @@
         <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>29</v>
@@ -1640,7 +1640,7 @@
         <v>61</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>30</v>
@@ -1673,7 +1673,7 @@
         <v>67</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>40</v>
@@ -1711,10 +1711,10 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>29</v>
@@ -1723,7 +1723,7 @@
         <v>61</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>30</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>29</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>29</v>

--- a/KatalonData/IWPTestData/EmulatorData.xlsx
+++ b/KatalonData/IWPTestData/EmulatorData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T476640\Documents\VPS_Katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45875C4-3E7D-4841-873D-5002002D12A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35294C03-415B-456D-A754-83E5A8EDEB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="110">
   <si>
     <t>Notes</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t xml:space="preserve">|1234~Whole Wheat~$5| </t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -722,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D3E213-FD08-482B-9ECE-5B5E0D45C129}">
-  <dimension ref="A1:AF19"/>
+  <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+    <sheetView tabSelected="1" topLeftCell="S7" workbookViewId="0">
+      <selection activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1709,7 +1712,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>99</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>94</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>94</v>
       </c>
@@ -1825,6 +1828,86 @@
       </c>
       <c r="AC19" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/IWPTestData/EmulatorData.xlsx
+++ b/KatalonData/IWPTestData/EmulatorData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T476640\Documents\VPS_Katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35294C03-415B-456D-A754-83E5A8EDEB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEDCFB2-EE2D-42DA-89E3-79C17F35E70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
   </bookViews>
   <sheets>
     <sheet name="EmulatorData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="118">
   <si>
     <t>Notes</t>
   </si>
@@ -355,6 +355,30 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>Display CF All Data</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>26413419</t>
+  </si>
+  <si>
+    <t>26413420</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
 </sst>
 </file>
@@ -725,45 +749,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D3E213-FD08-482B-9ECE-5B5E0D45C129}">
-  <dimension ref="A1:AF20"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S7" workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:AG25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.81640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="23.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.77734375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.453125" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.1796875" style="1"/>
+    <col min="31" max="31" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.44140625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,7 +885,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -941,7 +965,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -965,7 +989,7 @@
       </c>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -1042,7 +1066,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -1062,7 +1086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -1142,7 +1166,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>73</v>
       </c>
@@ -1204,7 +1228,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -1269,7 +1293,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -1352,7 +1376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -1435,7 +1459,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
@@ -1471,7 +1495,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
@@ -1525,7 +1549,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
@@ -1558,7 +1582,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>94</v>
       </c>
@@ -1593,7 +1617,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>94</v>
       </c>
@@ -1629,7 +1653,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
@@ -1712,7 +1736,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>99</v>
       </c>
@@ -1766,7 +1790,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>94</v>
       </c>
@@ -1798,7 +1822,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>94</v>
       </c>
@@ -1830,7 +1854,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -1908,6 +1932,314 @@
       </c>
       <c r="AF20" s="1" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/IWPTestData/EmulatorData.xlsx
+++ b/KatalonData/IWPTestData/EmulatorData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEDCFB2-EE2D-42DA-89E3-79C17F35E70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48711ADB-BDD4-45DA-80A8-F71445F22D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
   </bookViews>
   <sheets>
     <sheet name="EmulatorData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="138">
   <si>
     <t>Notes</t>
   </si>
@@ -375,10 +375,70 @@
     <t>22</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>26413421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|Whole Wheat~$5| </t>
+  </si>
+  <si>
+    <t>26413422</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>26413423</t>
+  </si>
+  <si>
+    <t>26413424</t>
+  </si>
+  <si>
+    <t>26413425</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>26413426</t>
+  </si>
+  <si>
+    <t>26413427</t>
+  </si>
+  <si>
+    <t>26413428</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>10.899</t>
+  </si>
+  <si>
+    <t>20.8899</t>
   </si>
 </sst>
 </file>
@@ -749,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D3E213-FD08-482B-9ECE-5B5E0D45C129}">
-  <dimension ref="A1:AF24"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:AG25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2022,7 +2082,7 @@
         <v>82</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>113</v>
@@ -2170,13 +2230,13 @@
         <v>110</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>114</v>
@@ -2239,6 +2299,708 @@
         <v>49</v>
       </c>
       <c r="AC24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC33" s="1" t="s">
         <v>50</v>
       </c>
     </row>

--- a/KatalonData/IWPTestData/EmulatorData.xlsx
+++ b/KatalonData/IWPTestData/EmulatorData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48711ADB-BDD4-45DA-80A8-F71445F22D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D41F04-0492-4236-B243-4E5BC4C955E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="EmulatorData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="139">
   <si>
     <t>Notes</t>
   </si>
@@ -393,9 +394,6 @@
     <t>26413421</t>
   </si>
   <si>
-    <t xml:space="preserve">|Whole Wheat~$5| </t>
-  </si>
-  <si>
     <t>26413422</t>
   </si>
   <si>
@@ -439,6 +437,12 @@
   </si>
   <si>
     <t>20.8899</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>|Yoghurt~Organic~$45~125cal~Sep3rd~AI~RiteAid|</t>
   </si>
 </sst>
 </file>
@@ -489,12 +493,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,45 +816,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D3E213-FD08-482B-9ECE-5B5E0D45C129}">
-  <dimension ref="A1:AF33"/>
+  <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.77734375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.44140625" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.21875" style="1"/>
+    <col min="31" max="31" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.42578125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -945,7 +952,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -1025,7 +1032,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -1049,7 +1056,7 @@
       </c>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -1126,7 +1133,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -1146,7 +1153,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -1226,7 +1233,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>73</v>
       </c>
@@ -1288,7 +1295,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -1353,7 +1360,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -1436,7 +1443,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -1519,7 +1526,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
@@ -1555,7 +1562,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
@@ -1609,7 +1616,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
@@ -1642,7 +1649,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>94</v>
       </c>
@@ -1677,7 +1684,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>94</v>
       </c>
@@ -1713,7 +1720,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
@@ -1796,7 +1803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>99</v>
       </c>
@@ -1850,7 +1857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>94</v>
       </c>
@@ -1882,7 +1889,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>94</v>
       </c>
@@ -1914,7 +1921,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -1994,7 +2001,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>110</v>
       </c>
@@ -2071,7 +2078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>110</v>
       </c>
@@ -2082,7 +2089,7 @@
         <v>82</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>113</v>
@@ -2148,7 +2155,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>110</v>
       </c>
@@ -2225,7 +2232,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>110</v>
       </c>
@@ -2236,7 +2243,7 @@
         <v>83</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>114</v>
@@ -2302,7 +2309,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>110</v>
       </c>
@@ -2378,11 +2385,11 @@
       <c r="AC25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AF25" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AF25" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
@@ -2393,7 +2400,7 @@
         <v>84</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>121</v>
@@ -2458,11 +2465,11 @@
       <c r="AC26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AF26" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF26" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -2476,7 +2483,7 @@
         <v>72</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>30</v>
@@ -2539,7 +2546,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>110</v>
       </c>
@@ -2547,13 +2554,13 @@
         <v>120</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>30</v>
@@ -2616,21 +2623,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>30</v>
@@ -2693,21 +2700,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>30</v>
@@ -2769,25 +2776,22 @@
       <c r="AC30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AF30" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:32" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>30</v>
@@ -2849,22 +2853,25 @@
       <c r="AC31" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF31" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>30</v>
@@ -2927,21 +2934,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>30</v>
@@ -3001,6 +3008,83 @@
         <v>49</v>
       </c>
       <c r="AC33" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC34" s="1" t="s">
         <v>50</v>
       </c>
     </row>

--- a/KatalonData/IWPTestData/EmulatorData.xlsx
+++ b/KatalonData/IWPTestData/EmulatorData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476640\Documents\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48711ADB-BDD4-45DA-80A8-F71445F22D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEAA6C0-F23B-4409-96D7-3894F43114D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B75285DF-1640-4994-93D2-6C318038763B}"/>
   </bookViews>
   <sheets>
     <sheet name="EmulatorData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="139">
   <si>
     <t>Notes</t>
   </si>
@@ -439,6 +439,9 @@
   </si>
   <si>
     <t>20.8899</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
 </sst>
 </file>
@@ -809,45 +812,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D3E213-FD08-482B-9ECE-5B5E0D45C129}">
-  <dimension ref="A1:AF33"/>
+  <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.77734375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="23.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.44140625" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.21875" style="1"/>
+    <col min="31" max="31" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.453125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -945,7 +948,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -1025,7 +1028,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -1049,7 +1052,7 @@
       </c>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -1226,7 +1229,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
         <v>73</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -1436,7 +1439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -1519,7 +1522,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
@@ -1609,7 +1612,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>94</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>94</v>
       </c>
@@ -1713,7 +1716,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
@@ -1796,7 +1799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>99</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>94</v>
       </c>
@@ -1882,7 +1885,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>94</v>
       </c>
@@ -1914,7 +1917,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -1994,7 +1997,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>110</v>
       </c>
@@ -2071,7 +2074,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>110</v>
       </c>
@@ -2148,7 +2151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>110</v>
       </c>
@@ -2225,7 +2228,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>110</v>
       </c>
@@ -2302,7 +2305,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>110</v>
       </c>
@@ -2382,7 +2385,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
@@ -2462,7 +2465,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -2539,7 +2542,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>110</v>
       </c>
@@ -2616,7 +2619,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>110</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>110</v>
       </c>
@@ -2773,7 +2776,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>110</v>
       </c>
@@ -2850,7 +2853,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>110</v>
       </c>
@@ -2927,7 +2930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>110</v>
       </c>
@@ -3001,6 +3004,83 @@
         <v>49</v>
       </c>
       <c r="AC33" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC34" s="1" t="s">
         <v>50</v>
       </c>
     </row>
